--- a/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.62411890783316</v>
+        <v>91.76524676335876</v>
       </c>
       <c r="D2" t="n">
-        <v>30.25988333545387</v>
+        <v>33.68826299921441</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>95.9838240740284</v>
+        <v>92.24185991968471</v>
       </c>
       <c r="D3" t="n">
-        <v>27.26448889507986</v>
+        <v>30.78644073474683</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>97.66858674560031</v>
+        <v>89.69712358057139</v>
       </c>
       <c r="D4" t="n">
-        <v>28.44842531417338</v>
+        <v>26.43224856846149</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.54332981269252</v>
+        <v>84.74654718816771</v>
       </c>
       <c r="D5" t="n">
-        <v>25.94294152288082</v>
+        <v>27.82001389538233</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.58128458162929</v>
+        <v>85.54676769242066</v>
       </c>
       <c r="D6" t="n">
-        <v>26.00340483288815</v>
+        <v>29.42748531652114</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.72219620864773</v>
+        <v>87.74484561812068</v>
       </c>
       <c r="D7" t="n">
-        <v>25.71976737722021</v>
+        <v>29.39312696476719</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.08886040084722</v>
+        <v>88.17450466458214</v>
       </c>
       <c r="D8" t="n">
-        <v>28.66542051646121</v>
+        <v>26.901094847596</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.1708657418331</v>
+        <v>82.7153351669299</v>
       </c>
       <c r="D9" t="n">
-        <v>30.77049456594557</v>
+        <v>30.20819301625446</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.59618979275233</v>
+        <v>83.5731540971648</v>
       </c>
       <c r="D10" t="n">
-        <v>32.10229172043058</v>
+        <v>26.15679732916852</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.94555222013285</v>
+        <v>83.27315102945592</v>
       </c>
       <c r="D11" t="n">
-        <v>27.74199294478391</v>
+        <v>25.80823367848714</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.46488675711271</v>
+        <v>83.15789656002873</v>
       </c>
       <c r="D12" t="n">
-        <v>28.52090920521215</v>
+        <v>28.26835871266724</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.35263566707765</v>
+        <v>80.98549632784183</v>
       </c>
       <c r="D13" t="n">
-        <v>31.03636815486443</v>
+        <v>27.50582967773007</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.9218244805902</v>
+        <v>81.69699511794454</v>
       </c>
       <c r="D14" t="n">
-        <v>24.53010581709455</v>
+        <v>26.57558082552265</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>82.18318183022957</v>
+        <v>74.95383850071025</v>
       </c>
       <c r="D15" t="n">
-        <v>32.58883127682593</v>
+        <v>26.03740443724877</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.45517204995565</v>
+        <v>77.48969900582577</v>
       </c>
       <c r="D16" t="n">
-        <v>28.1786908437359</v>
+        <v>27.27356823954614</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.88425610865156</v>
+        <v>75.71538051275738</v>
       </c>
       <c r="D17" t="n">
-        <v>29.35359046950174</v>
+        <v>22.83576265714404</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.37762276771652</v>
+        <v>70.3126858071907</v>
       </c>
       <c r="D18" t="n">
-        <v>28.21430243705344</v>
+        <v>24.67659650780096</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.96076763090467</v>
+        <v>71.66378400401805</v>
       </c>
       <c r="D19" t="n">
-        <v>28.6550376556089</v>
+        <v>30.01521017833862</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.42104611735066</v>
+        <v>74.98509455409454</v>
       </c>
       <c r="D20" t="n">
-        <v>27.48515103074912</v>
+        <v>28.77470198468842</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.66827650069277</v>
+        <v>74.16848041287028</v>
       </c>
       <c r="D21" t="n">
-        <v>27.38171723921641</v>
+        <v>27.29648657803871</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.73337314831475</v>
+        <v>60.04636248897656</v>
       </c>
       <c r="D22" t="n">
-        <v>27.69991084524663</v>
+        <v>28.34477430635592</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>74.08291587671022</v>
+        <v>67.31306836168979</v>
       </c>
       <c r="D23" t="n">
-        <v>27.87709825652087</v>
+        <v>30.99179351789057</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.96144170723721</v>
+        <v>72.73267714711795</v>
       </c>
       <c r="D24" t="n">
-        <v>27.28953281603327</v>
+        <v>29.65445083724865</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>70.48868206137547</v>
+        <v>67.43355548811175</v>
       </c>
       <c r="D25" t="n">
-        <v>30.80608234296742</v>
+        <v>28.69044023067139</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>70.49580434235907</v>
+        <v>65.27095187346183</v>
       </c>
       <c r="D26" t="n">
-        <v>31.31595334603711</v>
+        <v>27.58339445018603</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>61.59250889849082</v>
+        <v>61.57502433027492</v>
       </c>
       <c r="D27" t="n">
-        <v>27.10070799312011</v>
+        <v>30.02847863728618</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.74612451263846</v>
+        <v>67.08050023182619</v>
       </c>
       <c r="D28" t="n">
-        <v>26.28729472017827</v>
+        <v>29.30004255976716</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.25666078696587</v>
+        <v>62.35046400557723</v>
       </c>
       <c r="D29" t="n">
-        <v>31.34789871463715</v>
+        <v>28.01120831617773</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.12044414278087</v>
+        <v>56.28312911162146</v>
       </c>
       <c r="D30" t="n">
-        <v>30.08295448129743</v>
+        <v>28.53451502978968</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>57.41593825437703</v>
+        <v>60.89341239891982</v>
       </c>
       <c r="D31" t="n">
-        <v>24.76593125303634</v>
+        <v>29.2011678956713</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.02757256326209</v>
+        <v>59.4746918766848</v>
       </c>
       <c r="D32" t="n">
-        <v>27.70125512604174</v>
+        <v>26.81096911955861</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.66120737240225</v>
+        <v>53.7260064993202</v>
       </c>
       <c r="D33" t="n">
-        <v>28.25141785896901</v>
+        <v>29.78000419572015</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.08469584169092</v>
+        <v>55.10268535088269</v>
       </c>
       <c r="D34" t="n">
-        <v>28.79345827029335</v>
+        <v>25.87001336760279</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>60.10219214999564</v>
+        <v>57.90284042940952</v>
       </c>
       <c r="D35" t="n">
-        <v>26.85789867616212</v>
+        <v>25.87337152740822</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>60.42496887942802</v>
+        <v>59.95410612679735</v>
       </c>
       <c r="D36" t="n">
-        <v>25.6521189894446</v>
+        <v>26.6389535775045</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>59.46228000165105</v>
+        <v>51.50024689571214</v>
       </c>
       <c r="D37" t="n">
-        <v>29.26309676137634</v>
+        <v>28.90720224522999</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>51.58156987524888</v>
+        <v>58.1443913605899</v>
       </c>
       <c r="D38" t="n">
-        <v>28.25249017788175</v>
+        <v>29.66835192102591</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>56.55519119628541</v>
+        <v>54.02228109719055</v>
       </c>
       <c r="D39" t="n">
-        <v>33.04696504388065</v>
+        <v>25.0316811640706</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.92007092067833</v>
+        <v>50.37574371172114</v>
       </c>
       <c r="D40" t="n">
-        <v>25.78030691294052</v>
+        <v>27.0173697562175</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>47.97209487697798</v>
+        <v>51.2988124845458</v>
       </c>
       <c r="D41" t="n">
-        <v>29.66750379603931</v>
+        <v>26.1600997159066</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.24058775892318</v>
+        <v>51.97926244712662</v>
       </c>
       <c r="D42" t="n">
-        <v>27.62325926511555</v>
+        <v>25.98717925364415</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>44.63053561190185</v>
+        <v>53.66868802537196</v>
       </c>
       <c r="D43" t="n">
-        <v>25.41477647298631</v>
+        <v>29.36850546657023</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>52.82268832350682</v>
+        <v>44.46398571034371</v>
       </c>
       <c r="D44" t="n">
-        <v>25.94755104205213</v>
+        <v>27.98302666008957</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.03948984023645</v>
+        <v>41.61427231016701</v>
       </c>
       <c r="D45" t="n">
-        <v>28.10319325090367</v>
+        <v>26.09578605454741</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>51.84949239957842</v>
+        <v>46.56004127167024</v>
       </c>
       <c r="D46" t="n">
-        <v>32.7196309139454</v>
+        <v>21.78554779047309</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>51.35944421997127</v>
+        <v>47.60608716887258</v>
       </c>
       <c r="D47" t="n">
-        <v>27.38969619643012</v>
+        <v>23.29740669817402</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>39.0639426797472</v>
+        <v>41.48718243087729</v>
       </c>
       <c r="D48" t="n">
-        <v>29.35311636184973</v>
+        <v>24.4108280467765</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>45.59407984825807</v>
+        <v>44.03883163317392</v>
       </c>
       <c r="D49" t="n">
-        <v>26.00432335364826</v>
+        <v>29.36440765146194</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.10996370319801</v>
+        <v>39.48578182573743</v>
       </c>
       <c r="D50" t="n">
-        <v>29.22407957738198</v>
+        <v>27.46442466382187</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>35.733930000661</v>
+        <v>45.63892395039706</v>
       </c>
       <c r="D51" t="n">
-        <v>25.73362669012517</v>
+        <v>26.63391170335167</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.02673160103097</v>
+        <v>42.31055701310249</v>
       </c>
       <c r="D52" t="n">
-        <v>28.25452847970845</v>
+        <v>26.0739954173272</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.67616504654746</v>
+        <v>42.89703201158331</v>
       </c>
       <c r="D53" t="n">
-        <v>27.04944337016284</v>
+        <v>27.30012736973707</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>41.12756059971807</v>
+        <v>38.07801689893119</v>
       </c>
       <c r="D54" t="n">
-        <v>29.27296125869543</v>
+        <v>29.18912736207127</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>34.73420911434662</v>
+        <v>39.89450181731328</v>
       </c>
       <c r="D55" t="n">
-        <v>29.85690977559771</v>
+        <v>27.26802696928007</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>39.09266077482886</v>
+        <v>37.78628504489123</v>
       </c>
       <c r="D56" t="n">
-        <v>27.830996371598</v>
+        <v>29.51789622611602</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.24864364804744</v>
+        <v>37.34592418061624</v>
       </c>
       <c r="D57" t="n">
-        <v>29.33775679661105</v>
+        <v>28.69398522920796</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>31.77242025607391</v>
+        <v>32.24035410407614</v>
       </c>
       <c r="D58" t="n">
-        <v>24.91415119015718</v>
+        <v>28.36901686581132</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.57362976843665</v>
+        <v>37.67353082433235</v>
       </c>
       <c r="D59" t="n">
-        <v>28.07425442271444</v>
+        <v>25.87658636626086</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>27.84666636915889</v>
+        <v>27.79961724960246</v>
       </c>
       <c r="D60" t="n">
-        <v>24.01804234044992</v>
+        <v>28.02699946683444</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.52987088499097</v>
+        <v>35.34890029815155</v>
       </c>
       <c r="D61" t="n">
-        <v>26.23372022579446</v>
+        <v>25.02278641708981</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.82590316911895</v>
+        <v>31.67579445616492</v>
       </c>
       <c r="D62" t="n">
-        <v>28.30830935727366</v>
+        <v>30.35761537010115</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.63434798923842</v>
+        <v>27.82181358028543</v>
       </c>
       <c r="D63" t="n">
-        <v>28.49742237909385</v>
+        <v>28.94933524617363</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.1263233985511</v>
+        <v>23.66679007450973</v>
       </c>
       <c r="D64" t="n">
-        <v>30.58284871918721</v>
+        <v>29.2335672853878</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>23.38607273387596</v>
+        <v>23.98853036933315</v>
       </c>
       <c r="D65" t="n">
-        <v>28.84769030310134</v>
+        <v>26.76932963770606</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.71242814475169</v>
+        <v>23.08529992892437</v>
       </c>
       <c r="D66" t="n">
-        <v>24.24656235244406</v>
+        <v>27.67951520040655</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.73946998884234</v>
+        <v>22.4336855909899</v>
       </c>
       <c r="D67" t="n">
-        <v>23.58407106967756</v>
+        <v>23.98958837179937</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.85851331295641</v>
+        <v>26.36137131396809</v>
       </c>
       <c r="D68" t="n">
-        <v>26.05676028051606</v>
+        <v>28.6605851454682</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.46681772817614</v>
+        <v>22.5081668324054</v>
       </c>
       <c r="D69" t="n">
-        <v>27.51055589082472</v>
+        <v>23.86203162617196</v>
       </c>
     </row>
   </sheetData>
